--- a/excel_to_mysql/data.xlsx
+++ b/excel_to_mysql/data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,13 +84,45 @@
   </si>
   <si>
     <t>李天10</t>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张涛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张涛1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张涛2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张涛3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,7 +147,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -138,17 +170,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -211,7 +257,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -243,10 +289,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -278,7 +323,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -454,16 +498,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -474,180 +518,235 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>1</v>
+      <c r="B2" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C2" s="1">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C3" s="1">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1">
-        <v>0</v>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="C4" s="1">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C5" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1">
-        <v>0</v>
+      <c r="B6" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C6" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="1">
-        <v>0</v>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1">
-        <v>0</v>
+      <c r="B8" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C8" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="1">
-        <v>0</v>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C9" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="1">
-        <v>0</v>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C11" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1">
-        <v>0</v>
+      <c r="B12" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C12" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="1">
-        <v>0</v>
+      <c r="B13" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C13" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="1">
-        <v>0</v>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C14" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="1">
-        <v>0</v>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="1">
-        <v>0</v>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="1">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1">
-        <v>0</v>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="C17" s="1">
         <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -658,12 +757,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -672,12 +771,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_to_mysql/data.xlsx
+++ b/excel_to_mysql/data.xlsx
@@ -147,36 +147,10 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -187,14 +161,17 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,10 +479,13 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -695,57 +675,57 @@
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18" s="3">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2">
+      <c r="C19" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="2">
+      <c r="C21" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2">
+      <c r="C22" s="3">
         <v>28</v>
       </c>
     </row>
